--- a/Supplementary material/SupMat.xlsx
+++ b/Supplementary material/SupMat.xlsx
@@ -38053,13 +38053,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB87220E-F92F-4253-9AA0-8E3A9F4679BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1E0C20-F187-44E8-A823-474646EB7DB7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A7E8271-C794-4236-92C1-732A0DEE78CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C84AE9-2532-43FB-A18D-33AC02D5EBB5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400AF299-E344-490E-8218-04DE7A7DEF8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9A4C62A-7D7F-4342-A860-9D1CC090A790}"/>
 </file>